--- a/data/Zimbabwe interventions.xlsx
+++ b/data/Zimbabwe interventions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="329">
   <si>
     <t>Active</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Community</t>
   </si>
   <si>
-    <t>Nutritional deficiencies: 0.8</t>
-  </si>
-  <si>
     <t>Acute ventilatory failure management</t>
   </si>
   <si>
@@ -85,24 +82,15 @@
     <t>Antenatal and postpartum education</t>
   </si>
   <si>
-    <t>Maternal disorders: 0.8; Neonatal disorders: 0.8</t>
-  </si>
-  <si>
     <t>Appendectomy</t>
   </si>
   <si>
-    <t>Appendicitis: 0.8</t>
-  </si>
-  <si>
     <t>ART care for PLHIV</t>
   </si>
   <si>
     <t>Health Center</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.8664</t>
-  </si>
-  <si>
     <t>Aspirin for acute myocardial infarction</t>
   </si>
   <si>
@@ -112,33 +100,18 @@
     <t>Assisted vaginal delivery</t>
   </si>
   <si>
-    <t>Maternal obstructed labor and uterine rupture: 0.85</t>
-  </si>
-  <si>
     <t>Basic management of MNIs and disorders</t>
   </si>
   <si>
-    <t>Musculoskeletal disorders: 0.8; Neurological disorders: 0.8</t>
-  </si>
-  <si>
     <t>School based HPV vaccination for girls</t>
   </si>
   <si>
-    <t>Cervical cancer: 0.8</t>
-  </si>
-  <si>
     <t>Basic skin grafting</t>
   </si>
   <si>
-    <t>Fire, heat, and hot substances: 0.8</t>
-  </si>
-  <si>
     <t>BEmNOC</t>
   </si>
   <si>
-    <t>Maternal disorders: 1; Neonatal disorders: 1</t>
-  </si>
-  <si>
     <t>Bipolar disorder management</t>
   </si>
   <si>
@@ -148,15 +121,9 @@
     <t>Bowel obstruction management</t>
   </si>
   <si>
-    <t>Other digestive diseases: 0.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prevention of FGM </t>
   </si>
   <si>
-    <t>Interpersonal violence: 0.8</t>
-  </si>
-  <si>
     <t>Care for early-stage cervical cancer</t>
   </si>
   <si>
@@ -172,15 +139,9 @@
     <t>Household HIV testing and counseling</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.8</t>
-  </si>
-  <si>
     <t>Care for fractures</t>
   </si>
   <si>
-    <t>Transport injuries: 0.8; Falls: 0.8; Forces of nature, conflict and terrorism, and executions and police conflict: 0.8; Physical violence by firearm: 0.8; Physical violence by other means: 0.8; Physical violence by sharp object: 0.8</t>
-  </si>
-  <si>
     <t>Care for hypertensive disorders in pregnancy</t>
   </si>
   <si>
@@ -199,33 +160,21 @@
     <t>Case detection strategies for malaria</t>
   </si>
   <si>
-    <t>Malaria: 0.8</t>
-  </si>
-  <si>
     <t>Test for G6PD deficiency</t>
   </si>
   <si>
     <t>Cataract extraction</t>
   </si>
   <si>
-    <t>Cataract: 0.8</t>
-  </si>
-  <si>
     <t>Childhood vaccination series</t>
   </si>
   <si>
-    <t>Diphtheria: 0.8; Whooping cough: 0.8; Tetanus: 0.8; Tuberculosis: 0.8; Measles: 0.8; Acute hepatitis B: 0.8; Cirrhosis and other chronic liver diseases due to hepatitis B: 0.8; Liver cancer due to hepatitis B: 0.8; H influenzae type B meningitis: 0.8</t>
-  </si>
-  <si>
     <t>Presumptive treatment of febrile illness</t>
   </si>
   <si>
     <t>Colostomy</t>
   </si>
   <si>
-    <t>Colon and rectum cancer: 0.8</t>
-  </si>
-  <si>
     <t>Community-based HIV services</t>
   </si>
   <si>
@@ -235,9 +184,6 @@
     <t>Condoms and hormonal contraceptives</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.8; Sexually transmitted diseases excluding HIV: 0.8</t>
-  </si>
-  <si>
     <t>Seasonal malaria chemoprophylaxis</t>
   </si>
   <si>
@@ -247,21 +193,12 @@
     <t>Lymphedema management</t>
   </si>
   <si>
-    <t>Lymphatic filariasis: 0.8</t>
-  </si>
-  <si>
     <t>Cotrimoxazole for children</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.848</t>
-  </si>
-  <si>
     <t>Treatment for yaws</t>
   </si>
   <si>
-    <t>Other neglected tropical diseases: 0.8</t>
-  </si>
-  <si>
     <t>Counseling on kangaroo care for newborns</t>
   </si>
   <si>
@@ -271,15 +208,9 @@
     <t>Self-managed treatment of migraine</t>
   </si>
   <si>
-    <t>Migraine: 0.8</t>
-  </si>
-  <si>
     <t>Identification of lead poisoning</t>
   </si>
   <si>
-    <t>Poisonings: 0.8</t>
-  </si>
-  <si>
     <t>Counseling on providing thermal care</t>
   </si>
   <si>
@@ -295,9 +226,6 @@
     <t>ECD rehabilitation interventions</t>
   </si>
   <si>
-    <t>Autistic spectrum disorders: 0.8; Conduct disorder: 0.8; Attention-deficit/hyperactivity disorder: 0.8; Idiopathic developmental intellectual disability: 0.8</t>
-  </si>
-  <si>
     <t>Diabetes screening and care for at-risk adults</t>
   </si>
   <si>
@@ -307,9 +235,6 @@
     <t xml:space="preserve">Individualized environmental modifications </t>
   </si>
   <si>
-    <t>Falls: 0.8</t>
-  </si>
-  <si>
     <t>Diabetes screening and care in pregnancy</t>
   </si>
   <si>
@@ -325,9 +250,6 @@
     <t xml:space="preserve">Diagnosis of TB and first-line treatment </t>
   </si>
   <si>
-    <t>Drug-susceptible tuberculosis: 0.8; Multidrug-resistant tuberculosis without extensive drug resistance: 0.8; HIV-AIDS - Drug-susceptible Tuberculosis: 0.8; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.8</t>
-  </si>
-  <si>
     <t>Drainage of dental abscess</t>
   </si>
   <si>
@@ -343,24 +265,15 @@
     <t>Early detection and treatment of NTDs</t>
   </si>
   <si>
-    <t>Chagas disease: 0.8; African trypanosomiasis: 0.8; Leprosy: 0.8; Leishmaniasis: 0.8</t>
-  </si>
-  <si>
     <t>Eclampsia management</t>
   </si>
   <si>
     <t xml:space="preserve">Surgical termination of pregnancy </t>
   </si>
   <si>
-    <t>Maternal abortion, miscarriage, and ectopic pregnancy: 0.8</t>
-  </si>
-  <si>
     <t>Care for severe childhood infections</t>
   </si>
   <si>
-    <t>Nutritional deficiencies: 0.8; Malaria: 0.8; Measles: 0.8; Diarrheal diseases: 0.8; Lower respiratory infections: 0.8; Upper respiratory infections: 0.8</t>
-  </si>
-  <si>
     <t>Education campaigns on GBV</t>
   </si>
   <si>
@@ -373,15 +286,9 @@
     <t>Education on hygiene</t>
   </si>
   <si>
-    <t>Diarrheal diseases: 0.8</t>
-  </si>
-  <si>
     <t>Fever management for clinically unstable</t>
   </si>
   <si>
-    <t>Malaria: 0.8; HIV/AIDS: 0.8; Tuberculosis: 0.8; HIV-AIDS - Drug-susceptible Tuberculosis: 0.8; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.8; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.8; Chronic obstructive pulmonary disease: 0.8; Sexually transmitted diseases excluding HIV: 0.8; Diarrheal diseases: 0.8; Rheumatic heart disease: 0.8; Diphtheria: 0.8; Tetanus: 0.8; Lymphatic filariasis: 0.8</t>
-  </si>
-  <si>
     <t>Elective surgery for orthopedic injuries</t>
   </si>
   <si>
@@ -415,27 +322,15 @@
     <t>Harm reduction services for PWID</t>
   </si>
   <si>
-    <t>Opioid use disorders: 1; HIV/AIDS: 1; Acute hepatitis: 1</t>
-  </si>
-  <si>
     <t>Universal newborn screening for sickle cell</t>
   </si>
   <si>
-    <t>Pneumococcal meningitis: 0.8; H influenzae type B meningitis: 0.8; Malaria: 0.8</t>
-  </si>
-  <si>
     <t>Hepatitis B vaccination</t>
   </si>
   <si>
-    <t>Acute hepatitis B: 0.8; Cirrhosis and other chronic liver diseases due to hepatitis B: 0.8; Liver cancer due to hepatitis B: 0.8</t>
-  </si>
-  <si>
     <t>Hernia repair</t>
   </si>
   <si>
-    <t>Inguinal, femoral, and abdominal hernia: 0.8</t>
-  </si>
-  <si>
     <t>HIV education and counseling</t>
   </si>
   <si>
@@ -448,9 +343,6 @@
     <t>Hysterectomy</t>
   </si>
   <si>
-    <t>Maternal obstructed labor and uterine rupture: 0.8; Maternal hemorrhage: 0.8</t>
-  </si>
-  <si>
     <t>IHD, stroke and PVD management</t>
   </si>
   <si>
@@ -478,45 +370,27 @@
     <t>Insertion of shunt for hydrocephalus</t>
   </si>
   <si>
-    <t>Stroke: 0.8</t>
-  </si>
-  <si>
     <t>Osteomyelitis management</t>
   </si>
   <si>
-    <t>Other musculoskeletal disorders: 0.8</t>
-  </si>
-  <si>
     <t>Septic arthritis management</t>
   </si>
   <si>
     <t>Integrated community case management</t>
   </si>
   <si>
-    <t>Malaria: 0.8; Diarrheal diseases: 0.8; Pneumococcal meningitis: 0.8; Nutritional deficiencies: 0.8</t>
-  </si>
-  <si>
     <t>Removal of gallbladder</t>
   </si>
   <si>
-    <t>Gallbladder and biliary diseases: 0.8</t>
-  </si>
-  <si>
     <t>Integrated management of childhood illness</t>
   </si>
   <si>
     <t>Resuscitation with advanced measures</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.8; Transport injuries: 0.8; Forces of nature, conflict and terrorism, and executions and police conflict: 0.8; Physical violence by firearm: 0.8; Physical violence by other means: 0.8; Physical violence by sharp object: 0.8</t>
-  </si>
-  <si>
     <t>Intoxication/poisoning management</t>
   </si>
   <si>
-    <t>Alcohol use disorders: 0.8; Drug use disorders: 0.8; Poisonings: 0.8</t>
-  </si>
-  <si>
     <t>IPT for malaria in infancy</t>
   </si>
   <si>
@@ -529,9 +403,6 @@
     <t>Iron and folic acid for pregnant women</t>
   </si>
   <si>
-    <t>Dietary iron deficiency: 0.8; Other nutritional deficiencies: 0.8</t>
-  </si>
-  <si>
     <t>Isoniazid Preventative Therapy for TB</t>
   </si>
   <si>
@@ -553,9 +424,6 @@
     <t xml:space="preserve">Life skills training in schools </t>
   </si>
   <si>
-    <t>Autistic spectrum disorders: 0.8; Conduct disorder: 0.8; Depressive disorders: 0.8; Anxiety disorders: 0.8; Attention-deficit/hyperactivity disorder: 0.8; Idiopathic developmental intellectual disability: 0.8</t>
-  </si>
-  <si>
     <t>Low-risk labor and delivery</t>
   </si>
   <si>
@@ -574,9 +442,6 @@
     <t>Management of sexual and tract infections</t>
   </si>
   <si>
-    <t>Sexually transmitted diseases excluding HIV: 0.8; Urinary tract infections: 0.8</t>
-  </si>
-  <si>
     <t>Mass drug administration (NTDs)</t>
   </si>
   <si>
@@ -586,9 +451,6 @@
     <t>Preterm labor management</t>
   </si>
   <si>
-    <t>Neonatal preterm birth: 0.8</t>
-  </si>
-  <si>
     <t>Mass marketing of insecticide nets</t>
   </si>
   <si>
@@ -598,21 +460,12 @@
     <t>Population-based Health Interventions</t>
   </si>
   <si>
-    <t>HIV/AIDS: 1; Sexually transmitted diseases excluding HIV: 1; Schizophrenia: 1; Alcohol use disorders: 1; Depressive disorders: 1; Bipolar disorder: 1; Anxiety disorders: 1; Eating disorders: 1; Attention-deficit/hyperactivity disorder: 1; Conduct disorder: 1; Other mental and substance use disorders: 1</t>
-  </si>
-  <si>
     <t>Mass media for alcohol/tobacco</t>
   </si>
   <si>
-    <t>Alcohol use disorders: 0.8</t>
-  </si>
-  <si>
     <t>Mass media for diet/exercise</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.8; Diabetes mellitus: 0.8; Chronic kidney disease due to diabetes mellitus: 0.8; Chronic kidney disease due to hypertension: 0.8</t>
-  </si>
-  <si>
     <t>Mass media for hand washing</t>
   </si>
   <si>
@@ -622,9 +475,6 @@
     <t>Mass media for sexual health</t>
   </si>
   <si>
-    <t>HIV/AIDS: 1; Sexually transmitted diseases excluding HIV: 1</t>
-  </si>
-  <si>
     <t>Maternal sepsis management</t>
   </si>
   <si>
@@ -640,15 +490,9 @@
     <t>Medical management of heart failure</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.8</t>
-  </si>
-  <si>
     <t>Treatment eligibility for hepatitis B and C</t>
   </si>
   <si>
-    <t>Acute hepatitis B: 0.8; Cirrhosis and other chronic liver diseases due to hepatitis B: 0.8; Liver cancer due to hepatitis B: 0.8; Acute hepatitis C: 0.8; Cirrhosis and other chronic liver diseases due to hepatitis C: 0.8; Liver cancer due to hepatitis C: 0.8</t>
-  </si>
-  <si>
     <t>Miscarriage and abortions management</t>
   </si>
   <si>
@@ -667,9 +511,6 @@
     <t>Non-malaria vector management</t>
   </si>
   <si>
-    <t>Chagas disease: 0.8; Visceral leishmaniasis: 0.8; Dengue: 0.8</t>
-  </si>
-  <si>
     <t>Opportunistic screening for cervical cancer</t>
   </si>
   <si>
@@ -691,15 +532,9 @@
     <t>PMTCT of HIV (Option B+) and syphilis</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.9974; Syphilis: 0.9974</t>
-  </si>
-  <si>
     <t>Latent-TB screening and IPT for PLHIV</t>
   </si>
   <si>
-    <t>Latent tuberculosis infection: 0.8</t>
-  </si>
-  <si>
     <t>Preterm premature rupture management</t>
   </si>
   <si>
@@ -709,33 +544,21 @@
     <t>Use of vaccines for endemic infections</t>
   </si>
   <si>
-    <t>Dengue: 0.8; Encephalitis: 0.8; Meningococcal meningitis: 0.8</t>
-  </si>
-  <si>
     <t>Provision of insecticide nets</t>
   </si>
   <si>
     <t>Flu and pneumococcal vaccinations</t>
   </si>
   <si>
-    <t>Pneumococcal meningitis: 0.8</t>
-  </si>
-  <si>
     <t>Therapy for CVD risk factors</t>
   </si>
   <si>
     <t>Pneumococcus vaccination</t>
   </si>
   <si>
-    <t>Pneumococcal meningitis: 0.87</t>
-  </si>
-  <si>
     <t>Post gender-based violence care</t>
   </si>
   <si>
-    <t>Depressive disorders: 0.8; Anxiety disorders: 0.8</t>
-  </si>
-  <si>
     <t>PrEP for individuals at high risk of infection</t>
   </si>
   <si>
@@ -775,30 +598,18 @@
     <t>Tobacco cessation counseling</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.8; Lip and oral cavity cancer: 0.8; Nasopharynx cancer: 0.8; Other pharynx cancer: 0.8; Esophageal cancer: 0.8; Stomach cancer: 0.8; Pancreatic cancer: 0.8; Larynx cancer: 0.8; Tracheal, bronchus, and lung cancer: 0.8; Cervical cancer: 0.8; Acute myeloid leukemia: 0.8</t>
-  </si>
-  <si>
     <t>Support for caregivers of dementia patients</t>
   </si>
   <si>
     <t>Relief of urinary obstruction</t>
   </si>
   <si>
-    <t>Urinary diseases and male infertility: 0.8</t>
-  </si>
-  <si>
     <t>Repair of anorectal malformations</t>
   </si>
   <si>
-    <t>Digestive congenital anomalies: 0.8</t>
-  </si>
-  <si>
     <t>Repair of cleft lip and cleft palate</t>
   </si>
   <si>
-    <t>Orofacial clefts: 0.8</t>
-  </si>
-  <si>
     <t>Repair of club foot</t>
   </si>
   <si>
@@ -808,21 +619,12 @@
     <t>Repair of obstetric fistula</t>
   </si>
   <si>
-    <t>Other maternal disorders: 0.8</t>
-  </si>
-  <si>
     <t>Exercise programs</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.8; Falls: 0.8; Transport injuries: 0.8; Forces of nature, conflict and terrorism, and executions and police conflict: 0.8; Physical violence by firearm: 0.8; Physical violence by other means: 0.8; Physical violence by sharp object: 0.8</t>
-  </si>
-  <si>
     <t>Repair of perforations</t>
   </si>
   <si>
-    <t>Peptic ulcer disease: 0.8; Other digestive diseases: 0.8</t>
-  </si>
-  <si>
     <t>Resuscitation with basic measures</t>
   </si>
   <si>
@@ -838,9 +640,6 @@
     <t>Rotavirus vaccination</t>
   </si>
   <si>
-    <t>Diarrheal diseases: 0.87</t>
-  </si>
-  <si>
     <t>Schizophrenia management</t>
   </si>
   <si>
@@ -856,9 +655,6 @@
     <t>Screening and ACEi or ARBs for kidney disease</t>
   </si>
   <si>
-    <t>Chronic kidney disease: 0.8</t>
-  </si>
-  <si>
     <t>Screening and brief alcohol intervention</t>
   </si>
   <si>
@@ -868,9 +664,6 @@
     <t>Screening for congenital hearing loss</t>
   </si>
   <si>
-    <t>Other congenital birth defects: 0.8</t>
-  </si>
-  <si>
     <t>Secondary prevention of osteoporosis</t>
   </si>
   <si>
@@ -886,9 +679,6 @@
     <t>Self-care interventions for disabilities</t>
   </si>
   <si>
-    <t>Musculoskeletal disorders: 0.8</t>
-  </si>
-  <si>
     <t>Severe acute malnutrition management</t>
   </si>
   <si>
@@ -925,30 +715,18 @@
     <t>Testing and counseling for HIV, STIs, hepatitis</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.8; Sexually transmitted diseases excluding HIV: 0.8; Acute hepatitis: 0.8; Maternal deaths aggravated by HIV/AIDS: 0.8</t>
-  </si>
-  <si>
     <t>Tetanus toxoid immunization</t>
   </si>
   <si>
-    <t>Tetanus: 0.8</t>
-  </si>
-  <si>
     <t>Therapy for moderate to severe arthritis</t>
   </si>
   <si>
-    <t>Rheumatoid arthritis: 0.8</t>
-  </si>
-  <si>
     <t>Training and retraining for speech</t>
   </si>
   <si>
     <t>Training, retraining, and exercise programs</t>
   </si>
   <si>
-    <t>Low back and neck pain: 0.8</t>
-  </si>
-  <si>
     <t>Trauma-related amputations</t>
   </si>
   <si>
@@ -967,9 +745,6 @@
     <t>Surgery for trachomatous trichiasis</t>
   </si>
   <si>
-    <t>Trachoma: 0.8</t>
-  </si>
-  <si>
     <t>Treatment of early stage breast cancer</t>
   </si>
   <si>
@@ -982,9 +757,6 @@
     <t>Treatment of early-stage childhood cancers</t>
   </si>
   <si>
-    <t>Non-Hodgkin lymphoma: 0.8; Hodgkin lymphoma: 0.8; Acute lymphoid leukemia: 0.8</t>
-  </si>
-  <si>
     <t>Treatment of neonatal pneumonia</t>
   </si>
   <si>
@@ -994,19 +766,241 @@
     <t>Percutaneous coronary intervention</t>
   </si>
   <si>
-    <t>Ischemic heart disease: 0.8</t>
-  </si>
-  <si>
     <t>Urgent surgery for orthopedic injuries</t>
   </si>
   <si>
     <t>Vitamin A and zinc for children</t>
   </si>
   <si>
-    <t>Vitamin A deficiency: 0.8; Other nutritional deficiencies: 0.8</t>
-  </si>
-  <si>
     <t>WASH behavior change interventions</t>
+  </si>
+  <si>
+    <t>Nutritional deficiencies: 0.101</t>
+  </si>
+  <si>
+    <t>Maternal disorders: 0.101; Neonatal disorders: 0.101</t>
+  </si>
+  <si>
+    <t>Appendicitis: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101664</t>
+  </si>
+  <si>
+    <t>Maternal obstructed labor and uterine rupture: 0.1015</t>
+  </si>
+  <si>
+    <t>Musculoskeletal disorders: 0.101; Neurological disorders: 0.101</t>
+  </si>
+  <si>
+    <t>Cervical cancer: 0.101</t>
+  </si>
+  <si>
+    <t>Fire, heat, and hot substances: 0.101</t>
+  </si>
+  <si>
+    <t>Other digestive diseases: 0.101</t>
+  </si>
+  <si>
+    <t>Interpersonal violence: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101</t>
+  </si>
+  <si>
+    <t>Transport injuries: 0.101; Falls: 0.101; Forces of nature, conflict and terrorism, and executions and police conflict: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
+  </si>
+  <si>
+    <t>Malaria: 0.101</t>
+  </si>
+  <si>
+    <t>Cataract: 0.101</t>
+  </si>
+  <si>
+    <t>Diphtheria: 0.101; Whooping cough: 0.101; Tetanus: 0.101; Tuberculosis: 0.101; Measles: 0.101; Acute hepatitis B: 0.101; Cirrhosis and other chronic liver diseases due to hepatitis B: 0.101; Liver cancer due to hepatitis B: 0.101; H influenzae type B meningitis: 0.101</t>
+  </si>
+  <si>
+    <t>Colon and rectum cancer: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Sexually transmitted diseases excluding HIV: 0.101</t>
+  </si>
+  <si>
+    <t>Lymphatic filariasis: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.10148</t>
+  </si>
+  <si>
+    <t>Other neglected tropical diseases: 0.101</t>
+  </si>
+  <si>
+    <t>Migraine: 0.101</t>
+  </si>
+  <si>
+    <t>Poisonings: 0.101</t>
+  </si>
+  <si>
+    <t>Autistic spectrum disorders: 0.101; Conduct disorder: 0.101; Attention-deficit/hyperactivity disorder: 0.101; Idiopathic developmental intellectual disability: 0.101</t>
+  </si>
+  <si>
+    <t>Falls: 0.101</t>
+  </si>
+  <si>
+    <t>Drug-susceptible tuberculosis: 0.101; Multidrug-resistant tuberculosis without extensive drug resistance: 0.101; HIV-AIDS - Drug-susceptible Tuberculosis: 0.101; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.101</t>
+  </si>
+  <si>
+    <t>Chagas disease: 0.101; African trypanosomiasis: 0.101; Leprosy: 0.101; Leishmaniasis: 0.101</t>
+  </si>
+  <si>
+    <t>Maternal abortion, miscarriage, and ectopic pregnancy: 0.101</t>
+  </si>
+  <si>
+    <t>Nutritional deficiencies: 0.101; Malaria: 0.101; Measles: 0.101; Diarrheal diseases: 0.101; Lower respiratory infections: 0.101; Upper respiratory infections: 0.101</t>
+  </si>
+  <si>
+    <t>Diarrheal diseases: 0.101</t>
+  </si>
+  <si>
+    <t>Malaria: 0.101; HIV/AIDS: 0.101; Tuberculosis: 0.101; HIV-AIDS - Drug-susceptible Tuberculosis: 0.101; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.101; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.101; Chronic obstructive pulmonary disease: 0.101; Sexually transmitted diseases excluding HIV: 0.101; Diarrheal diseases: 0.101; Rheumatic heart disease: 0.101; Diphtheria: 0.101; Tetanus: 0.101; Lymphatic filariasis: 0.101</t>
+  </si>
+  <si>
+    <t>Pneumococcal meningitis: 0.101; H influenzae type B meningitis: 0.101; Malaria: 0.101</t>
+  </si>
+  <si>
+    <t>Acute hepatitis B: 0.101; Cirrhosis and other chronic liver diseases due to hepatitis B: 0.101; Liver cancer due to hepatitis B: 0.101</t>
+  </si>
+  <si>
+    <t>Inguinal, femoral, and abdominal hernia: 0.101</t>
+  </si>
+  <si>
+    <t>Maternal obstructed labor and uterine rupture: 0.101; Maternal hemorrhage: 0.101</t>
+  </si>
+  <si>
+    <t>Stroke: 0.101</t>
+  </si>
+  <si>
+    <t>Other musculoskeletal disorders: 0.101</t>
+  </si>
+  <si>
+    <t>Malaria: 0.101; Diarrheal diseases: 0.101; Pneumococcal meningitis: 0.101; Nutritional deficiencies: 0.101</t>
+  </si>
+  <si>
+    <t>Gallbladder and biliary diseases: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Transport injuries: 0.101; Forces of nature, conflict and terrorism, and executions and police conflict: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
+  </si>
+  <si>
+    <t>Alcohol use disorders: 0.101; Drug use disorders: 0.101; Poisonings: 0.101</t>
+  </si>
+  <si>
+    <t>Dietary iron deficiency: 0.101; Other nutritional deficiencies: 0.101</t>
+  </si>
+  <si>
+    <t>Autistic spectrum disorders: 0.101; Conduct disorder: 0.101; Depressive disorders: 0.101; Anxiety disorders: 0.101; Attention-deficit/hyperactivity disorder: 0.101; Idiopathic developmental intellectual disability: 0.101</t>
+  </si>
+  <si>
+    <t>Sexually transmitted diseases excluding HIV: 0.101; Urinary tract infections: 0.101</t>
+  </si>
+  <si>
+    <t>Neonatal preterm birth: 0.101</t>
+  </si>
+  <si>
+    <t>Alcohol use disorders: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Diabetes mellitus: 0.101; Chronic kidney disease due to diabetes mellitus: 0.101; Chronic kidney disease due to hypertension: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101</t>
+  </si>
+  <si>
+    <t>Acute hepatitis B: 0.101; Cirrhosis and other chronic liver diseases due to hepatitis B: 0.101; Liver cancer due to hepatitis B: 0.101; Acute hepatitis C: 0.101; Cirrhosis and other chronic liver diseases due to hepatitis C: 0.101; Liver cancer due to hepatitis C: 0.101</t>
+  </si>
+  <si>
+    <t>Chagas disease: 0.101; Visceral leishmaniasis: 0.101; Dengue: 0.101</t>
+  </si>
+  <si>
+    <t>Latent tuberculosis infection: 0.101</t>
+  </si>
+  <si>
+    <t>Dengue: 0.101; Encephalitis: 0.101; Meningococcal meningitis: 0.101</t>
+  </si>
+  <si>
+    <t>Pneumococcal meningitis: 0.101</t>
+  </si>
+  <si>
+    <t>Pneumococcal meningitis: 0.1017</t>
+  </si>
+  <si>
+    <t>Depressive disorders: 0.101; Anxiety disorders: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Lip and oral cavity cancer: 0.101; Nasopharynx cancer: 0.101; Other pharynx cancer: 0.101; Esophageal cancer: 0.101; Stomach cancer: 0.101; Pancreatic cancer: 0.101; Larynx cancer: 0.101; Tracheal, bronchus, and lung cancer: 0.101; Cervical cancer: 0.101; Acute myeloid leukemia: 0.101</t>
+  </si>
+  <si>
+    <t>Urinary diseases and male infertility: 0.101</t>
+  </si>
+  <si>
+    <t>Digestive congenital anomalies: 0.101</t>
+  </si>
+  <si>
+    <t>Orofacial clefts: 0.101</t>
+  </si>
+  <si>
+    <t>Other maternal disorders: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Falls: 0.101; Transport injuries: 0.101; Forces of nature, conflict and terrorism, and executions and police conflict: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
+  </si>
+  <si>
+    <t>Peptic ulcer disease: 0.101; Other digestive diseases: 0.101</t>
+  </si>
+  <si>
+    <t>Diarrheal diseases: 0.1017</t>
+  </si>
+  <si>
+    <t>Chronic kidney disease: 0.101</t>
+  </si>
+  <si>
+    <t>Other congenital birth defects: 0.101</t>
+  </si>
+  <si>
+    <t>Musculoskeletal disorders: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Sexually transmitted diseases excluding HIV: 0.101; Acute hepatitis: 0.101; Maternal deaths aggravated by HIV/AIDS: 0.101</t>
+  </si>
+  <si>
+    <t>Tetanus: 0.101</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis: 0.101</t>
+  </si>
+  <si>
+    <t>Low back and neck pain: 0.101</t>
+  </si>
+  <si>
+    <t>Trachoma: 0.101</t>
+  </si>
+  <si>
+    <t>Non-Hodgkin lymphoma: 0.101; Hodgkin lymphoma: 0.101; Acute lymphoid leukemia: 0.101</t>
+  </si>
+  <si>
+    <t>Ischemic heart disease: 0.101</t>
+  </si>
+  <si>
+    <t>Vitamin A deficiency: 0.101; Other nutritional deficiencies: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Syphilis: 0.101</t>
+  </si>
+  <si>
+    <t>Opioid use disorders:0.301; HIV/AIDS:0.301; Acute hepatitis: 1</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Sexually transmitted diseases excluding HIV: 0.101; Schizophrenia: 0.101; Alcohol use disorders: 0.101; Depressive disorders:0.301; Bipolar disorder:0.301; Anxiety disorders:0.301; Eating disorders:0.301; Attention-deficit/hyperactivity disorder:0.301; Conduct disorder:0.301; Other mental and substance use disorders: 1</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1389,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="E4" s="1">
         <v>32</v>
@@ -1532,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>478.59253999994388</v>
@@ -1562,13 +1556,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>478.59253999994388</v>
@@ -1592,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="E7" s="1">
         <v>478.59253999994388</v>
@@ -1622,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="E8" s="1">
         <v>22.088886460000001</v>
@@ -1652,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>64</v>
@@ -1682,13 +1676,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>478.59253999994388</v>
@@ -1712,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="E11" s="1">
         <v>322.2</v>
@@ -1742,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="E12" s="1">
         <v>5968</v>
@@ -1772,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="E13" s="1">
         <v>242</v>
@@ -1802,13 +1796,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="E14" s="1">
         <v>60</v>
@@ -1832,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="E15" s="1">
         <v>147</v>
@@ -1862,13 +1856,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>1499</v>
@@ -1892,13 +1886,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="E17" s="1">
         <v>47.24</v>
@@ -1922,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1952,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <v>478.59253999994388</v>
@@ -1982,13 +1976,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1">
         <v>478.59253999994388</v>
@@ -2012,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="E21" s="1">
         <v>1400</v>
@@ -2042,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E22" s="1">
         <v>69</v>
@@ -2072,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1">
         <v>72799</v>
@@ -2102,13 +2096,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1">
         <v>5488</v>
@@ -2132,13 +2126,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E25" s="1">
         <v>22.088886460000001</v>
@@ -2162,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2192,13 +2186,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="E27" s="1">
         <v>20.49</v>
@@ -2222,13 +2216,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="E28" s="1">
         <v>13</v>
@@ -2252,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E29" s="1">
         <v>93</v>
@@ -2282,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="E30" s="1">
         <v>47.24</v>
@@ -2312,13 +2306,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1">
         <v>2400</v>
@@ -2342,13 +2336,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="E32" s="1">
         <v>478.59253999994388</v>
@@ -2372,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E33" s="1">
         <v>49</v>
@@ -2402,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2432,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="E35" s="1">
         <v>308.99</v>
@@ -2462,13 +2456,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="E36" s="1">
         <v>64</v>
@@ -2492,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="E37" s="1">
         <v>324</v>
@@ -2522,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1">
         <v>237</v>
@@ -2552,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2582,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2612,13 +2606,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1">
         <v>237.02</v>
@@ -2642,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2672,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1">
         <v>478.59253999994388</v>
@@ -2702,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2732,13 +2726,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1">
         <v>22.088886460000001</v>
@@ -2762,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2792,13 +2786,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E47" s="1">
         <v>72799</v>
@@ -2822,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1">
         <v>31</v>
@@ -2852,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="E49" s="1">
         <v>1032</v>
@@ -2882,13 +2876,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E50" s="1">
         <v>478.59253999994388</v>
@@ -2912,13 +2906,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="E51" s="1">
         <v>22.088886460000001</v>
@@ -2942,13 +2936,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="E52" s="1">
         <v>63</v>
@@ -2972,13 +2966,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E53" s="1">
         <v>22.088886460000001</v>
@@ -3002,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="E54" s="1">
         <v>308.99</v>
@@ -3032,13 +3026,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="E55" s="1">
         <v>308.99</v>
@@ -3062,13 +3056,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="E56" s="1">
         <v>2908</v>
@@ -3092,13 +3086,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E57" s="1">
         <v>478.59253999994388</v>
@@ -3122,13 +3116,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="E58" s="1">
         <v>95</v>
@@ -3152,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="E59" s="1">
         <v>308.99</v>
@@ -3182,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E60" s="1">
         <v>478.59253999994388</v>
@@ -3212,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E61" s="1">
         <v>175</v>
@@ -3242,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1">
         <v>115</v>
@@ -3272,13 +3266,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="E63" s="1">
         <v>478.59253999994388</v>
@@ -3302,13 +3296,13 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E64" s="1">
         <v>478.59253999994388</v>
@@ -3332,13 +3326,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E65" s="1">
         <v>478.59253999994388</v>
@@ -3362,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E66" s="1">
         <v>237</v>
@@ -3392,13 +3386,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="E67" s="1">
         <v>3324</v>
@@ -3422,13 +3416,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="E68" s="1">
         <v>119</v>
@@ -3452,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="E69" s="1">
         <v>478.59253999994388</v>
@@ -3482,13 +3476,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="E70" s="1">
         <v>33.33</v>
@@ -3512,13 +3506,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="E71" s="1">
         <v>1186</v>
@@ -3542,13 +3536,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1">
         <v>1089</v>
@@ -3572,13 +3566,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="E73" s="1">
         <v>322.2</v>
@@ -3602,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E74" s="1">
         <v>478.59253999994388</v>
@@ -3632,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E75" s="1">
         <v>54</v>
@@ -3662,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E76" s="1">
         <v>478.59253999994388</v>
@@ -3692,10 +3686,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -3722,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E78" s="1">
         <v>226</v>
@@ -3752,13 +3746,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="E79" s="1">
         <v>124.38</v>
@@ -3782,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="E80" s="1">
         <v>440.3</v>
@@ -3812,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="E81" s="1">
         <v>440.3</v>
@@ -3842,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="E82" s="1">
         <v>478.59253999994388</v>
@@ -3872,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="E83" s="1">
         <v>47.24</v>
@@ -3902,13 +3896,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="E84" s="1">
         <v>58</v>
@@ -3932,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="E85" s="1">
         <v>308.99</v>
@@ -3962,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="E86" s="1">
         <v>478.59253999994388</v>
@@ -3992,13 +3986,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E87" s="1">
         <v>49</v>
@@ -4022,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E88" s="1">
         <v>9</v>
@@ -4052,13 +4046,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E89" s="1">
         <v>49</v>
@@ -4082,13 +4076,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="E90" s="1">
         <v>285</v>
@@ -4112,13 +4106,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E91" s="1">
         <v>2626</v>
@@ -4142,13 +4136,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E92" s="1">
         <v>478.59253999994388</v>
@@ -4172,13 +4166,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="E93" s="1">
         <v>2040</v>
@@ -4202,13 +4196,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="E94" s="1">
         <v>478.59253999994388</v>
@@ -4232,13 +4226,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="E95" s="1">
         <v>22.088886460000001</v>
@@ -4262,13 +4256,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E96" s="1">
         <v>2530</v>
@@ -4292,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="E97" s="1">
         <v>478.59253999994388</v>
@@ -4322,13 +4316,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="E98" s="1">
         <v>62.55</v>
@@ -4352,13 +4346,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="E99" s="1">
         <v>11</v>
@@ -4382,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="E100" s="1">
         <v>3338</v>
@@ -4412,13 +4406,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E101" s="1">
         <v>76</v>
@@ -4442,13 +4436,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c r="E102" s="1">
         <v>478.59253999994388</v>
@@ -4472,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="E103" s="1">
         <v>478.59253999994388</v>
@@ -4502,13 +4496,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="E104" s="1">
         <v>23</v>
@@ -4532,13 +4526,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="E105" s="1">
         <v>478.59253999994388</v>
@@ -4562,13 +4556,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="E106" s="1">
         <v>478.59253999994388</v>
@@ -4592,13 +4586,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="E107" s="1">
         <v>190</v>
@@ -4622,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="E108" s="1">
         <v>22.088886460000001</v>
@@ -4652,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>10</v>
@@ -4682,13 +4676,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="E110" s="1">
         <v>172</v>
@@ -4712,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4742,13 +4736,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="E112" s="1">
         <v>478.59253999994388</v>
@@ -4772,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4802,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="E114" s="1">
         <v>3560</v>
@@ -4832,13 +4826,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E115" s="1">
         <v>478.59253999994388</v>
@@ -4862,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="E116" s="1">
         <v>18</v>
@@ -4892,13 +4886,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="E117" s="1">
         <v>681</v>
@@ -4922,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E118" s="1">
         <v>4393</v>
@@ -4952,13 +4946,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="E119" s="1">
         <v>478.59253999994388</v>
@@ -4982,13 +4976,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="E120" s="1">
         <v>22.088886460000001</v>
@@ -5012,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="E121" s="1">
         <v>2301</v>
@@ -5042,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="E122" s="1">
         <v>1675</v>
@@ -5072,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="E123" s="1">
         <v>308.99</v>
@@ -5102,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="E124" s="1">
         <v>64</v>
@@ -5132,13 +5126,13 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E125" s="1">
         <v>27</v>
@@ -5162,13 +5156,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -5192,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -5222,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="E128" s="1">
         <v>103</v>
@@ -5252,13 +5246,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="E129" s="1">
         <v>2908</v>
@@ -5282,13 +5276,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="E130" s="1">
         <v>12680</v>
@@ -5312,13 +5306,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E131" s="1">
         <v>22.088886460000001</v>
@@ -5342,13 +5336,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="E132" s="1">
         <v>478.59253999994388</v>
@@ -5372,13 +5366,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="E133" s="1">
         <v>1206</v>
@@ -5402,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="E134" s="1">
         <v>22.088886460000001</v>
@@ -5432,13 +5426,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="E135" s="1">
         <v>11484</v>
@@ -5462,13 +5456,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="E136" s="1">
         <v>437</v>
@@ -5492,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="E137" s="1">
         <v>17</v>
@@ -5522,13 +5516,13 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="E138" s="1">
         <v>96</v>
@@ -5552,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
@@ -5582,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="E140" s="1">
         <v>47.24</v>
@@ -5612,13 +5606,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="E141" s="1">
         <v>478.59253999994388</v>
@@ -5642,13 +5636,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="E142" s="1">
         <v>31.18</v>
@@ -5672,13 +5666,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="E143" s="1">
         <v>10</v>
@@ -5702,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="E144" s="1">
         <v>478.59253999994388</v>
@@ -5732,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -5762,13 +5756,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="E146" s="1">
         <v>47.24</v>
@@ -5792,13 +5786,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="E147" s="1">
         <v>478.59253999994388</v>
@@ -5822,13 +5816,13 @@
         <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="E148" s="1">
         <v>630.6</v>
@@ -5852,13 +5846,13 @@
         <v>1</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E149" s="1">
         <v>478.59253999994388</v>
@@ -5882,13 +5876,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="E150" s="1">
         <v>478.59253999994388</v>
@@ -5912,13 +5906,13 @@
         <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="E151" s="1">
         <v>1499</v>
@@ -5942,13 +5936,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="E152" s="1">
         <v>742</v>
@@ -5972,13 +5966,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="E153" s="1">
         <v>4813</v>
@@ -6002,13 +5996,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="E154" s="1">
         <v>832</v>
@@ -6032,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="E155" s="1">
         <v>4898</v>
@@ -6062,13 +6056,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="E156" s="1">
         <v>478.59253999994388</v>
@@ -6092,13 +6086,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="E157" s="1">
         <v>478.59253999994388</v>
@@ -6122,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="E158" s="1">
         <v>308.99</v>
@@ -6152,13 +6146,13 @@
         <v>1</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="E159" s="1">
         <v>22.088886460000001</v>
@@ -6182,13 +6176,13 @@
         <v>1</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="E160" s="1">
         <v>26</v>
@@ -6212,13 +6206,13 @@
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="E161" s="1">
         <v>478.59253999994388</v>
@@ -6242,13 +6236,13 @@
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="E162" s="1">
         <v>478.59253999994388</v>
@@ -6272,13 +6266,13 @@
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="E163" s="1">
         <v>322.2</v>
@@ -6302,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="E164" s="1">
         <v>478.59253999994388</v>
@@ -6332,13 +6326,13 @@
         <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E165" s="1">
         <v>478.59253999994388</v>
@@ -6362,13 +6356,13 @@
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="E166" s="1">
         <v>330</v>
@@ -6392,13 +6386,13 @@
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="E167" s="1">
         <v>2155</v>
@@ -6422,13 +6416,13 @@
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E168" s="1">
         <v>17</v>
@@ -6452,13 +6446,13 @@
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E169" s="1">
         <v>1830</v>
@@ -6482,13 +6476,13 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E170" s="1">
         <v>22.088886460000001</v>
@@ -6512,13 +6506,13 @@
         <v>1</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="E171" s="1">
         <v>478.59253999994388</v>
@@ -6542,13 +6536,13 @@
         <v>1</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="E172" s="1">
         <v>22.088886460000001</v>
@@ -6572,13 +6566,13 @@
         <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E173" s="1">
         <v>18</v>
@@ -6602,13 +6596,13 @@
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="E174" s="1">
         <v>12</v>
@@ -6632,13 +6626,13 @@
         <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="E175" s="1">
         <v>478.59253999994388</v>
@@ -6662,13 +6656,13 @@
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E176" s="1">
         <v>42.73</v>
@@ -6692,13 +6686,13 @@
         <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="E177" s="1">
         <v>230</v>
@@ -6722,13 +6716,13 @@
         <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="E178" s="1">
         <v>427</v>
@@ -6752,13 +6746,13 @@
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E179" s="1">
         <v>1539</v>
@@ -6782,13 +6776,13 @@
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="E180" s="1">
         <v>36.340000000000003</v>
@@ -6812,13 +6806,13 @@
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E181" s="1">
         <v>478.59253999994388</v>
@@ -6842,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E182" s="1">
         <v>530</v>
@@ -6872,13 +6866,13 @@
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="E183" s="1">
         <v>478.59253999994388</v>
@@ -6902,13 +6896,13 @@
         <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E184" s="1">
         <v>88</v>
@@ -6932,13 +6926,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="E185" s="1">
         <v>478.59253999994388</v>

--- a/data/Zimbabwe interventions.xlsx
+++ b/data/Zimbabwe interventions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerard/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{63D02A1D-5FE2-9C49-8D10-A86E8C36624A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7280" yWindow="2820" windowWidth="22500" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="326">
   <si>
     <t>Active</t>
   </si>
@@ -76,9 +82,6 @@
     <t>Adolescent-friendly services for STIs</t>
   </si>
   <si>
-    <t>Sexually transmitted diseases excluding HIV: 0.12; Self-harm and interpersonal violence: 0.12</t>
-  </si>
-  <si>
     <t>Antenatal and postpartum education</t>
   </si>
   <si>
@@ -133,9 +136,6 @@
     <t>Care for fetal growth restriction</t>
   </si>
   <si>
-    <t>Maternal abortion, miscarriage, and ectopic pregnancy: 0.209</t>
-  </si>
-  <si>
     <t>Household HIV testing and counseling</t>
   </si>
   <si>
@@ -496,9 +496,6 @@
     <t>Miscarriage and abortions management</t>
   </si>
   <si>
-    <t>Maternal abortion, miscarriage, and ectopic pregnancy: 0.5</t>
-  </si>
-  <si>
     <t>Hepatitis B and C testing and referral</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>Pharmacological termination of pregnancy</t>
   </si>
   <si>
-    <t>Maternal abortion, miscarriage, and ectopic pregnancy: 0.65</t>
-  </si>
-  <si>
     <t>PMTCT of HIV (Option B+) and syphilis</t>
   </si>
   <si>
@@ -649,9 +643,6 @@
     <t>School-based education on health</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.11; Sexually transmitted diseases excluding HIV: 0.11; Cardiovascular diseases: 0.11; Diabetes mellitus: 0.11; Chronic kidney disease due to diabetes mellitus: 0.11; Chronic kidney disease due to hypertension: 0.11; Alcohol use disorders: 0.11; Drug use disorders: 0.11</t>
-  </si>
-  <si>
     <t>Screening and ACEi or ARBs for kidney disease</t>
   </si>
   <si>
@@ -703,15 +694,9 @@
     <t>TB ACF and linkage to care</t>
   </si>
   <si>
-    <t>Drug-susceptible tuberculosis: 0.15; Multidrug-resistant tuberculosis without extensive drug resistance: 0.15; Extensively drug-resistant tuberculosis: 0.15; HIV-AIDS - Drug-susceptible Tuberculosis: 0.15; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.15; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.15</t>
-  </si>
-  <si>
     <t>TB contact tracing</t>
   </si>
   <si>
-    <t>Tuberculosis: 0.42; HIV-AIDS - Drug-susceptible Tuberculosis: 0.42; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.42; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.42</t>
-  </si>
-  <si>
     <t>Testing and counseling for HIV, STIs, hepatitis</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
     <t>HIV/AIDS: 0.101</t>
   </si>
   <si>
-    <t>Transport injuries: 0.101; Falls: 0.101; Forces of nature, conflict and terrorism, and executions and police conflict: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
-  </si>
-  <si>
     <t>Malaria: 0.101</t>
   </si>
   <si>
@@ -823,9 +805,6 @@
     <t>Colon and rectum cancer: 0.101</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.101; Sexually transmitted diseases excluding HIV: 0.101</t>
-  </si>
-  <si>
     <t>Lymphatic filariasis: 0.101</t>
   </si>
   <si>
@@ -841,30 +820,18 @@
     <t>Poisonings: 0.101</t>
   </si>
   <si>
-    <t>Autistic spectrum disorders: 0.101; Conduct disorder: 0.101; Attention-deficit/hyperactivity disorder: 0.101; Idiopathic developmental intellectual disability: 0.101</t>
-  </si>
-  <si>
     <t>Falls: 0.101</t>
   </si>
   <si>
-    <t>Drug-susceptible tuberculosis: 0.101; Multidrug-resistant tuberculosis without extensive drug resistance: 0.101; HIV-AIDS - Drug-susceptible Tuberculosis: 0.101; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.101</t>
-  </si>
-  <si>
     <t>Chagas disease: 0.101; African trypanosomiasis: 0.101; Leprosy: 0.101; Leishmaniasis: 0.101</t>
   </si>
   <si>
-    <t>Maternal abortion, miscarriage, and ectopic pregnancy: 0.101</t>
-  </si>
-  <si>
     <t>Nutritional deficiencies: 0.101; Malaria: 0.101; Measles: 0.101; Diarrheal diseases: 0.101; Lower respiratory infections: 0.101; Upper respiratory infections: 0.101</t>
   </si>
   <si>
     <t>Diarrheal diseases: 0.101</t>
   </si>
   <si>
-    <t>Malaria: 0.101; HIV/AIDS: 0.101; Tuberculosis: 0.101; HIV-AIDS - Drug-susceptible Tuberculosis: 0.101; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.101; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.101; Chronic obstructive pulmonary disease: 0.101; Sexually transmitted diseases excluding HIV: 0.101; Diarrheal diseases: 0.101; Rheumatic heart disease: 0.101; Diphtheria: 0.101; Tetanus: 0.101; Lymphatic filariasis: 0.101</t>
-  </si>
-  <si>
     <t>Pneumococcal meningitis: 0.101; H influenzae type B meningitis: 0.101; Malaria: 0.101</t>
   </si>
   <si>
@@ -889,30 +856,18 @@
     <t>Gallbladder and biliary diseases: 0.101</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.101; Transport injuries: 0.101; Forces of nature, conflict and terrorism, and executions and police conflict: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
-  </si>
-  <si>
     <t>Alcohol use disorders: 0.101; Drug use disorders: 0.101; Poisonings: 0.101</t>
   </si>
   <si>
     <t>Dietary iron deficiency: 0.101; Other nutritional deficiencies: 0.101</t>
   </si>
   <si>
-    <t>Autistic spectrum disorders: 0.101; Conduct disorder: 0.101; Depressive disorders: 0.101; Anxiety disorders: 0.101; Attention-deficit/hyperactivity disorder: 0.101; Idiopathic developmental intellectual disability: 0.101</t>
-  </si>
-  <si>
-    <t>Sexually transmitted diseases excluding HIV: 0.101; Urinary tract infections: 0.101</t>
-  </si>
-  <si>
     <t>Neonatal preterm birth: 0.101</t>
   </si>
   <si>
     <t>Alcohol use disorders: 0.101</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.101; Diabetes mellitus: 0.101; Chronic kidney disease due to diabetes mellitus: 0.101; Chronic kidney disease due to hypertension: 0.101</t>
-  </si>
-  <si>
     <t>Cardiovascular diseases: 0.101</t>
   </si>
   <si>
@@ -952,9 +907,6 @@
     <t>Other maternal disorders: 0.101</t>
   </si>
   <si>
-    <t>Cardiovascular diseases: 0.101; Falls: 0.101; Transport injuries: 0.101; Forces of nature, conflict and terrorism, and executions and police conflict: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
-  </si>
-  <si>
     <t>Peptic ulcer disease: 0.101; Other digestive diseases: 0.101</t>
   </si>
   <si>
@@ -970,18 +922,12 @@
     <t>Musculoskeletal disorders: 0.101</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.101; Sexually transmitted diseases excluding HIV: 0.101; Acute hepatitis: 0.101; Maternal deaths aggravated by HIV/AIDS: 0.101</t>
-  </si>
-  <si>
     <t>Tetanus: 0.101</t>
   </si>
   <si>
     <t>Rheumatoid arthritis: 0.101</t>
   </si>
   <si>
-    <t>Low back and neck pain: 0.101</t>
-  </si>
-  <si>
     <t>Trachoma: 0.101</t>
   </si>
   <si>
@@ -1000,13 +946,64 @@
     <t>Opioid use disorders:0.301; HIV/AIDS:0.301; Acute hepatitis: 1</t>
   </si>
   <si>
-    <t>HIV/AIDS: 0.101; Sexually transmitted diseases excluding HIV: 0.101; Schizophrenia: 0.101; Alcohol use disorders: 0.101; Depressive disorders:0.301; Bipolar disorder:0.301; Anxiety disorders:0.301; Eating disorders:0.301; Attention-deficit/hyperactivity disorder:0.301; Conduct disorder:0.301; Other mental and substance use disorders: 1</t>
+    <t>Autism spectrum disorders: 0.101; Conduct disorder: 0.101; Attention-deficit/hyperactivity disorder: 0.101; Idiopathic developmental intellectual disability: 0.101</t>
+  </si>
+  <si>
+    <t>Autism spectrum disorders: 0.101; Conduct disorder: 0.101; Depressive disorders: 0.101; Anxiety disorders: 0.101; Attention-deficit/hyperactivity disorder: 0.101; Idiopathic developmental intellectual disability: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Diabetes mellitus: 0.101; Chronic kidney disease due to diabetes mellitus type 1: 0.101; Chronic kidney disease due to diabetes mellitus type 2: 0.101; Chronic kidney disease due to hypertension: 0.101</t>
+  </si>
+  <si>
+    <t>Transport injuries: 0.101; Falls: 0.101; Exposure to forces of nature: 0.101; Executions and police conflict: 0.101; Conflict and terrorism: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Falls: 0.101; Transport injuries: 0.101; Exposure to forces of nature: 0.101; Executions and police conflict: 0.101; Conflict and terrorism: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
+  </si>
+  <si>
+    <t>Cardiovascular diseases: 0.101; Transport injuries: 0.101; Exposure to forces of nature: 0.101; Executions and police conflict: 0.101; Conflict and terrorism: 0.101; Physical violence by firearm: 0.101; Physical violence by other means: 0.101; Physical violence by sharp object: 0.101</t>
+  </si>
+  <si>
+    <t>Drug-susceptible tuberculosis: 0.101; Multidrug-resistant tuberculosis without extensive drug resistance: 0.101; HIV/AIDS - Drug-susceptible Tuberculosis: 0.101; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.101</t>
+  </si>
+  <si>
+    <t>Drug-susceptible tuberculosis: 0.15; Multidrug-resistant tuberculosis without extensive drug resistance: 0.15; Extensively drug-resistant tuberculosis: 0.15; HIV/AIDS - Drug-susceptible Tuberculosis: 0.15; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.15; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.15</t>
+  </si>
+  <si>
+    <t>Tuberculosis: 0.42; HIV/AIDS - Drug-susceptible Tuberculosis: 0.42; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.42; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.42</t>
+  </si>
+  <si>
+    <t>Low back pain: 0.101; Neck pain: 0.101</t>
+  </si>
+  <si>
+    <t>Maternal abortion and miscarriage: 0.209; Ectopic pregnancy: 0.209</t>
+  </si>
+  <si>
+    <t>Sexually transmitted infections excluding HIV: 0.12; Self-harm and interpersonal violence: 0.12</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Sexually transmitted infections excluding HIV: 0.101</t>
+  </si>
+  <si>
+    <t>Malaria: 0.101; HIV/AIDS: 0.101; Tuberculosis: 0.101; HIV/AIDS - Drug-susceptible Tuberculosis: 0.101; HIV/AIDS - Multidrug-resistant Tuberculosis without extensive drug resistance: 0.101; HIV/AIDS - Extensively drug-resistant Tuberculosis: 0.101; Chronic obstructive pulmonary disease: 0.101; Sexually transmitted infections excluding HIV: 0.101; Diarrheal diseases: 0.101; Rheumatic heart disease: 0.101; Diphtheria: 0.101; Tetanus: 0.101; Lymphatic filariasis: 0.101</t>
+  </si>
+  <si>
+    <t>Sexually transmitted infections excluding HIV: 0.101; Urinary tract infections: 0.101</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Sexually transmitted infections excluding HIV: 0.101; Schizophrenia: 0.101; Alcohol use disorders: 0.101; Depressive disorders: 0.301; Bipolar disorder: 0.301; Anxiety disorders: 0.301; Eating disorders: 0.301; Attention-deficit/hyperactivity disorder: 0.301; Conduct disorder: 0.301; Other mental disorders: 0.301</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.11; Sexually transmitted infections excluding HIV: 0.11; Cardiovascular diseases: 0.11; Diabetes mellitus: 0.11; Chronic kidney disease due to diabetes mellitus type 1: 0.11; Chronic kidney disease due to diabetes mellitus type 2: 0.11; Chronic kidney disease due to hypertension: 0.11; Alcohol use disorders: 0.11; Drug use disorders: 0.11</t>
+  </si>
+  <si>
+    <t>HIV/AIDS: 0.101; Sexually transmitted infections excluding HIV: 0.101; Acute hepatitis: 0.101; Maternal deaths aggravated by HIV/AIDS: 0.101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,15 +1041,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1076,23 +1082,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I185" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I185"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I185" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I185" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Active"/>
-    <tableColumn id="2" name="Short name"/>
-    <tableColumn id="3" name="Platform"/>
-    <tableColumn id="4" name="Causes of burden (max coverage)"/>
-    <tableColumn id="5" name="ICER"/>
-    <tableColumn id="6" name="Unit cost"/>
-    <tableColumn id="7" name="Spending"/>
-    <tableColumn id="8" name="FRP"/>
-    <tableColumn id="9" name="Equity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Active"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Short name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Platform"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Causes of burden (max coverage)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICER"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit cost"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Spending"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FRP"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Equity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1141,7 +1150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,9 +1183,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1209,6 +1235,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1384,24 +1427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1454,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1431,7 +1474,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1441,7 +1484,7 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1">
@@ -1461,7 +1504,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1471,7 +1514,7 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1">
@@ -1491,7 +1534,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1501,8 +1544,8 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>253</v>
+      <c r="D4" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E4" s="1">
         <v>32</v>
@@ -1521,7 +1564,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1531,7 +1574,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1">
@@ -1551,7 +1594,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1561,8 +1604,8 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
+      <c r="D6" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E6" s="1">
         <v>478.59253999994388</v>
@@ -1581,18 +1624,18 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>254</v>
+      <c r="D7" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E7" s="1">
         <v>478.59253999994388</v>
@@ -1611,18 +1654,18 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>255</v>
+      <c r="D8" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E8" s="1">
         <v>22.088886460000001</v>
@@ -1641,18 +1684,18 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>256</v>
+      <c r="D9" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E9" s="1">
         <v>64</v>
@@ -1671,18 +1714,18 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>478.59253999994388</v>
@@ -1701,18 +1744,18 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>257</v>
+      <c r="D11" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="E11" s="1">
         <v>322.2</v>
@@ -1731,18 +1774,18 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="E12" s="1">
         <v>5968</v>
@@ -1761,18 +1804,18 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>259</v>
+      <c r="D13" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E13" s="1">
         <v>242</v>
@@ -1791,18 +1834,18 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>260</v>
+      <c r="D14" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E14" s="1">
         <v>60</v>
@@ -1821,18 +1864,18 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>254</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E15" s="1">
         <v>147</v>
@@ -1851,18 +1894,18 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E16" s="1">
         <v>1499</v>
@@ -1881,18 +1924,18 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>261</v>
+      <c r="D17" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E17" s="1">
         <v>47.24</v>
@@ -1911,18 +1954,18 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>262</v>
+      <c r="D18" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1941,18 +1984,18 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="1">
         <v>478.59253999994388</v>
@@ -1971,18 +2014,18 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
+      <c r="D20" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E20" s="1">
         <v>478.59253999994388</v>
@@ -2001,18 +2044,18 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>263</v>
+      <c r="D21" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E21" s="1">
         <v>1400</v>
@@ -2031,18 +2074,18 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>264</v>
+      <c r="D22" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E22" s="1">
         <v>69</v>
@@ -2061,18 +2104,18 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E23" s="1">
         <v>72799</v>
@@ -2091,18 +2134,18 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="1">
         <v>5488</v>
@@ -2121,18 +2164,18 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>265</v>
+      <c r="D25" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E25" s="1">
         <v>22.088886460000001</v>
@@ -2151,18 +2194,18 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>265</v>
+      <c r="D26" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -2181,18 +2224,18 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>266</v>
+      <c r="D27" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E27" s="1">
         <v>20.49</v>
@@ -2211,18 +2254,18 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>267</v>
+      <c r="D28" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="E28" s="1">
         <v>13</v>
@@ -2241,18 +2284,18 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>265</v>
+      <c r="D29" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E29" s="1">
         <v>93</v>
@@ -2271,18 +2314,18 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>268</v>
+      <c r="D30" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="E30" s="1">
         <v>47.24</v>
@@ -2301,18 +2344,18 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>54</v>
+      <c r="D31" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E31" s="1">
         <v>2400</v>
@@ -2331,18 +2374,18 @@
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>269</v>
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E32" s="1">
         <v>478.59253999994388</v>
@@ -2361,18 +2404,18 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>265</v>
+      <c r="D33" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E33" s="1">
         <v>49</v>
@@ -2391,18 +2434,18 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>265</v>
+      <c r="D34" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -2421,18 +2464,18 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>270</v>
+      <c r="D35" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E35" s="1">
         <v>308.99</v>
@@ -2451,18 +2494,18 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>271</v>
+      <c r="D36" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="E36" s="1">
         <v>64</v>
@@ -2481,18 +2524,18 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>272</v>
+      <c r="D37" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="E37" s="1">
         <v>324</v>
@@ -2511,18 +2554,18 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E38" s="1">
         <v>237</v>
@@ -2541,18 +2584,18 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>273</v>
+      <c r="D39" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2571,18 +2614,18 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>274</v>
+      <c r="D40" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -2601,18 +2644,18 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>62</v>
+      <c r="D41" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E41" s="1">
         <v>237.02</v>
@@ -2631,18 +2674,18 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>262</v>
+      <c r="D42" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2661,18 +2704,18 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E43" s="1">
         <v>478.59253999994388</v>
@@ -2691,18 +2734,18 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>275</v>
+      <c r="D44" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -2721,18 +2764,18 @@
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E45" s="1">
         <v>22.088886460000001</v>
@@ -2751,18 +2794,18 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>276</v>
+      <c r="D46" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -2781,18 +2824,18 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E47" s="1">
         <v>72799</v>
@@ -2811,18 +2854,18 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
+      <c r="D48" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E48" s="1">
         <v>31</v>
@@ -2841,18 +2884,18 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>277</v>
+        <v>41</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="E49" s="1">
         <v>1032</v>
@@ -2871,18 +2914,18 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E50" s="1">
         <v>478.59253999994388</v>
@@ -2901,18 +2944,18 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E51" s="1">
         <v>22.088886460000001</v>
@@ -2931,18 +2974,18 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>278</v>
+      <c r="D52" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="E52" s="1">
         <v>63</v>
@@ -2961,18 +3004,18 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>44</v>
+      <c r="D53" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E53" s="1">
         <v>22.088886460000001</v>
@@ -2991,18 +3034,18 @@
       </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>279</v>
+      <c r="D54" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E54" s="1">
         <v>308.99</v>
@@ -3021,18 +3064,18 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>280</v>
+      <c r="D55" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E55" s="1">
         <v>308.99</v>
@@ -3051,18 +3094,18 @@
       </c>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>262</v>
+      <c r="D56" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E56" s="1">
         <v>2908</v>
@@ -3081,18 +3124,18 @@
       </c>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>88</v>
+      <c r="D57" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E57" s="1">
         <v>478.59253999994388</v>
@@ -3111,18 +3154,18 @@
       </c>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>281</v>
+      <c r="D58" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E58" s="1">
         <v>95</v>
@@ -3141,18 +3184,18 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>282</v>
+      <c r="D59" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E59" s="1">
         <v>308.99</v>
@@ -3171,18 +3214,18 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>264</v>
+      <c r="D60" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E60" s="1">
         <v>478.59253999994388</v>
@@ -3201,18 +3244,18 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>265</v>
+      <c r="D61" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E61" s="1">
         <v>175</v>
@@ -3231,18 +3274,18 @@
       </c>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="E62" s="1">
         <v>115</v>
@@ -3261,18 +3304,18 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>260</v>
+      <c r="D63" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="E63" s="1">
         <v>478.59253999994388</v>
@@ -3291,18 +3334,18 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>97</v>
+      <c r="D64" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E64" s="1">
         <v>478.59253999994388</v>
@@ -3321,18 +3364,18 @@
       </c>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>264</v>
+      <c r="D65" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E65" s="1">
         <v>478.59253999994388</v>
@@ -3351,18 +3394,18 @@
       </c>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>100</v>
+      <c r="D66" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E66" s="1">
         <v>237</v>
@@ -3381,18 +3424,18 @@
       </c>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>327</v>
+      <c r="D67" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="E67" s="1">
         <v>3324</v>
@@ -3411,18 +3454,18 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>283</v>
+      <c r="D68" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="E68" s="1">
         <v>119</v>
@@ -3441,18 +3484,18 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>284</v>
+        <v>23</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E69" s="1">
         <v>478.59253999994388</v>
@@ -3471,18 +3514,18 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>285</v>
+      <c r="D70" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="E70" s="1">
         <v>33.33</v>
@@ -3501,18 +3544,18 @@
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>263</v>
+      <c r="D71" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E71" s="1">
         <v>1186</v>
@@ -3531,18 +3574,18 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E72" s="1">
         <v>1089</v>
@@ -3561,18 +3604,18 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>286</v>
+      <c r="D73" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="E73" s="1">
         <v>322.2</v>
@@ -3591,18 +3634,18 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>110</v>
+        <v>41</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E74" s="1">
         <v>478.59253999994388</v>
@@ -3621,18 +3664,18 @@
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>112</v>
+      <c r="D75" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E75" s="1">
         <v>54</v>
@@ -3651,18 +3694,18 @@
       </c>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>114</v>
+      <c r="D76" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E76" s="1">
         <v>478.59253999994388</v>
@@ -3681,17 +3724,17 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="1">
@@ -3711,18 +3754,18 @@
       </c>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>264</v>
+      <c r="D78" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E78" s="1">
         <v>226</v>
@@ -3741,18 +3784,18 @@
       </c>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>287</v>
+      <c r="D79" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="E79" s="1">
         <v>124.38</v>
@@ -3771,18 +3814,18 @@
       </c>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>288</v>
+      <c r="D80" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="E80" s="1">
         <v>440.3</v>
@@ -3801,18 +3844,18 @@
       </c>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>288</v>
+      <c r="D81" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="E81" s="1">
         <v>440.3</v>
@@ -3831,18 +3874,18 @@
       </c>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>289</v>
+      <c r="D82" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="E82" s="1">
         <v>478.59253999994388</v>
@@ -3861,18 +3904,18 @@
       </c>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>290</v>
+      <c r="D83" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E83" s="1">
         <v>47.24</v>
@@ -3891,18 +3934,18 @@
       </c>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>280</v>
+        <v>23</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="E84" s="1">
         <v>58</v>
@@ -3921,18 +3964,18 @@
       </c>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>291</v>
+      <c r="D85" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="E85" s="1">
         <v>308.99</v>
@@ -3951,18 +3994,18 @@
       </c>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>292</v>
+      <c r="D86" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="E86" s="1">
         <v>478.59253999994388</v>
@@ -3981,18 +4024,18 @@
       </c>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>265</v>
+      <c r="D87" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E87" s="1">
         <v>49</v>
@@ -4011,18 +4054,18 @@
       </c>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>264</v>
+      <c r="D88" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E88" s="1">
         <v>9</v>
@@ -4041,18 +4084,18 @@
       </c>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>265</v>
+      <c r="D89" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E89" s="1">
         <v>49</v>
@@ -4071,18 +4114,18 @@
       </c>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>293</v>
+      <c r="D90" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="E90" s="1">
         <v>285</v>
@@ -4101,18 +4144,18 @@
       </c>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="E91" s="1">
         <v>2626</v>
@@ -4131,18 +4174,18 @@
       </c>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>132</v>
+      <c r="D92" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E92" s="1">
         <v>478.59253999994388</v>
@@ -4161,18 +4204,18 @@
       </c>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>134</v>
+      <c r="D93" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E93" s="1">
         <v>2040</v>
@@ -4191,18 +4234,18 @@
       </c>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>294</v>
+      <c r="D94" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="E94" s="1">
         <v>478.59253999994388</v>
@@ -4221,18 +4264,18 @@
       </c>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>254</v>
+      <c r="D95" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E95" s="1">
         <v>22.088886460000001</v>
@@ -4251,18 +4294,18 @@
       </c>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>138</v>
+      <c r="D96" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E96" s="1">
         <v>2530</v>
@@ -4281,18 +4324,18 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>140</v>
+      <c r="D97" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E97" s="1">
         <v>478.59253999994388</v>
@@ -4311,18 +4354,18 @@
       </c>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>295</v>
+        <v>23</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="E98" s="1">
         <v>62.55</v>
@@ -4341,18 +4384,18 @@
       </c>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>143</v>
+      <c r="D99" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="E99" s="1">
         <v>11</v>
@@ -4371,18 +4414,18 @@
       </c>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>296</v>
+      <c r="D100" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="E100" s="1">
         <v>3338</v>
@@ -4401,18 +4444,18 @@
       </c>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>76</v>
+      <c r="D101" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E101" s="1">
         <v>76</v>
@@ -4431,18 +4474,18 @@
       </c>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>328</v>
+        <v>145</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="E102" s="1">
         <v>478.59253999994388</v>
@@ -4461,18 +4504,18 @@
       </c>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>297</v>
+        <v>145</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E103" s="1">
         <v>478.59253999994388</v>
@@ -4491,18 +4534,18 @@
       </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>298</v>
+        <v>145</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="E104" s="1">
         <v>23</v>
@@ -4521,18 +4564,18 @@
       </c>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="E105" s="1">
         <v>478.59253999994388</v>
@@ -4551,18 +4594,18 @@
       </c>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>269</v>
+        <v>145</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E106" s="1">
         <v>478.59253999994388</v>
@@ -4581,18 +4624,18 @@
       </c>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>154</v>
+      <c r="D107" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E107" s="1">
         <v>190</v>
@@ -4611,18 +4654,18 @@
       </c>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>263</v>
+        <v>23</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E108" s="1">
         <v>22.088886460000001</v>
@@ -4641,17 +4684,17 @@
       </c>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E109" s="1">
@@ -4671,18 +4714,18 @@
       </c>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>299</v>
+        <v>41</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="E110" s="1">
         <v>172</v>
@@ -4701,18 +4744,18 @@
       </c>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>300</v>
+        <v>23</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4731,18 +4774,18 @@
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>160</v>
+        <v>23</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E112" s="1">
         <v>478.59253999994388</v>
@@ -4761,18 +4804,18 @@
       </c>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>300</v>
+        <v>23</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4791,18 +4834,18 @@
       </c>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>269</v>
+        <v>23</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E114" s="1">
         <v>3560</v>
@@ -4821,18 +4864,18 @@
       </c>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>264</v>
+        <v>23</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E115" s="1">
         <v>478.59253999994388</v>
@@ -4851,18 +4894,18 @@
       </c>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>301</v>
+        <v>145</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="E116" s="1">
         <v>18</v>
@@ -4881,18 +4924,18 @@
       </c>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>166</v>
+        <v>41</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E117" s="1">
         <v>681</v>
@@ -4911,18 +4954,18 @@
       </c>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>168</v>
+        <v>23</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E118" s="1">
         <v>4393</v>
@@ -4941,18 +4984,18 @@
       </c>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E119" s="1">
         <v>478.59253999994388</v>
@@ -4971,18 +5014,18 @@
       </c>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>326</v>
+        <v>23</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="E120" s="1">
         <v>22.088886460000001</v>
@@ -5001,18 +5044,18 @@
       </c>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>302</v>
+        <v>23</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E121" s="1">
         <v>2301</v>
@@ -5031,18 +5074,18 @@
       </c>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>296</v>
+        <v>23</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="E122" s="1">
         <v>1675</v>
@@ -5061,18 +5104,18 @@
       </c>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>282</v>
+        <v>23</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E123" s="1">
         <v>308.99</v>
@@ -5091,18 +5134,18 @@
       </c>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>303</v>
+        <v>23</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="E124" s="1">
         <v>64</v>
@@ -5121,18 +5164,18 @@
       </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>265</v>
+        <v>23</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E125" s="1">
         <v>27</v>
@@ -5151,18 +5194,18 @@
       </c>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>304</v>
+        <v>23</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -5181,18 +5224,18 @@
       </c>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>299</v>
+        <v>23</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -5211,18 +5254,18 @@
       </c>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>305</v>
+      <c r="D128" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="E128" s="1">
         <v>103</v>
@@ -5241,18 +5284,18 @@
       </c>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>306</v>
+        <v>23</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E129" s="1">
         <v>2908</v>
@@ -5271,18 +5314,18 @@
       </c>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>263</v>
+        <v>23</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E130" s="1">
         <v>12680</v>
@@ -5301,18 +5344,18 @@
       </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>265</v>
+      <c r="D131" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E131" s="1">
         <v>22.088886460000001</v>
@@ -5331,18 +5374,18 @@
       </c>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>288</v>
+        <v>23</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="E132" s="1">
         <v>478.59253999994388</v>
@@ -5361,18 +5404,18 @@
       </c>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>185</v>
+      <c r="D133" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E133" s="1">
         <v>1206</v>
@@ -5391,18 +5434,18 @@
       </c>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>269</v>
+      <c r="D134" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="E134" s="1">
         <v>22.088886460000001</v>
@@ -5421,18 +5464,18 @@
       </c>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>188</v>
+        <v>23</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E135" s="1">
         <v>11484</v>
@@ -5451,18 +5494,18 @@
       </c>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>190</v>
+        <v>23</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E136" s="1">
         <v>437</v>
@@ -5481,18 +5524,18 @@
       </c>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>192</v>
+      <c r="D137" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E137" s="1">
         <v>17</v>
@@ -5511,18 +5554,18 @@
       </c>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>307</v>
+        <v>23</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="E138" s="1">
         <v>96</v>
@@ -5541,18 +5584,18 @@
       </c>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>306</v>
+        <v>23</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
@@ -5571,18 +5614,18 @@
       </c>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>308</v>
+      <c r="D140" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="E140" s="1">
         <v>47.24</v>
@@ -5601,18 +5644,18 @@
       </c>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>309</v>
+      <c r="D141" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="E141" s="1">
         <v>478.59253999994388</v>
@@ -5631,18 +5674,18 @@
       </c>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>310</v>
+      <c r="D142" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E142" s="1">
         <v>31.18</v>
@@ -5661,18 +5704,18 @@
       </c>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>199</v>
+      <c r="D143" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="E143" s="1">
         <v>10</v>
@@ -5691,18 +5734,18 @@
       </c>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>311</v>
+      <c r="D144" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="E144" s="1">
         <v>478.59253999994388</v>
@@ -5721,17 +5764,17 @@
       </c>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>312</v>
       </c>
       <c r="E145" s="1">
@@ -5751,18 +5794,18 @@
       </c>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>313</v>
+      <c r="D146" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="E146" s="1">
         <v>47.24</v>
@@ -5781,18 +5824,18 @@
       </c>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>291</v>
+        <v>23</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="E147" s="1">
         <v>478.59253999994388</v>
@@ -5811,18 +5854,18 @@
       </c>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>205</v>
+      <c r="D148" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E148" s="1">
         <v>630.6</v>
@@ -5841,18 +5884,18 @@
       </c>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>264</v>
+        <v>23</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E149" s="1">
         <v>478.59253999994388</v>
@@ -5871,18 +5914,18 @@
       </c>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>314</v>
+      <c r="D150" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="E150" s="1">
         <v>478.59253999994388</v>
@@ -5901,18 +5944,18 @@
       </c>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="E151" s="1">
         <v>1499</v>
@@ -5931,18 +5974,18 @@
       </c>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>211</v>
+      <c r="D152" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="E152" s="1">
         <v>742</v>
@@ -5961,18 +6004,18 @@
       </c>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>315</v>
+        <v>23</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="E153" s="1">
         <v>4813</v>
@@ -5991,18 +6034,18 @@
       </c>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>214</v>
+        <v>23</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="E154" s="1">
         <v>832</v>
@@ -6021,18 +6064,18 @@
       </c>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>316</v>
+        <v>23</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="E155" s="1">
         <v>4898</v>
@@ -6051,18 +6094,18 @@
       </c>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>288</v>
+      <c r="D156" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="E156" s="1">
         <v>478.59253999994388</v>
@@ -6081,18 +6124,18 @@
       </c>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>218</v>
+        <v>23</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E157" s="1">
         <v>478.59253999994388</v>
@@ -6111,18 +6154,18 @@
       </c>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>306</v>
+        <v>23</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E158" s="1">
         <v>308.99</v>
@@ -6141,18 +6184,18 @@
       </c>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>317</v>
+      <c r="D159" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="E159" s="1">
         <v>22.088886460000001</v>
@@ -6171,18 +6214,18 @@
       </c>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>253</v>
+      <c r="D160" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E160" s="1">
         <v>26</v>
@@ -6201,18 +6244,18 @@
       </c>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>265</v>
+      <c r="D161" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E161" s="1">
         <v>478.59253999994388</v>
@@ -6231,18 +6274,18 @@
       </c>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>224</v>
+      <c r="D162" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="E162" s="1">
         <v>478.59253999994388</v>
@@ -6261,18 +6304,18 @@
       </c>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>170</v>
+      <c r="D163" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E163" s="1">
         <v>322.2</v>
@@ -6291,18 +6334,18 @@
       </c>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>270</v>
+      <c r="D164" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E164" s="1">
         <v>478.59253999994388</v>
@@ -6321,18 +6364,18 @@
       </c>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>264</v>
+        <v>23</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E165" s="1">
         <v>478.59253999994388</v>
@@ -6351,18 +6394,18 @@
       </c>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>229</v>
+        <v>145</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="E166" s="1">
         <v>330</v>
@@ -6381,18 +6424,18 @@
       </c>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>231</v>
+      <c r="D167" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="E167" s="1">
         <v>2155</v>
@@ -6411,18 +6454,18 @@
       </c>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>318</v>
+        <v>23</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E168" s="1">
         <v>17</v>
@@ -6441,18 +6484,18 @@
       </c>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>319</v>
+      <c r="D169" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="E169" s="1">
         <v>1830</v>
@@ -6471,18 +6514,18 @@
       </c>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>320</v>
+      <c r="D170" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E170" s="1">
         <v>22.088886460000001</v>
@@ -6501,18 +6544,18 @@
       </c>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>275</v>
+      <c r="D171" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="E171" s="1">
         <v>478.59253999994388</v>
@@ -6531,18 +6574,18 @@
       </c>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>321</v>
+      <c r="D172" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="E172" s="1">
         <v>22.088886460000001</v>
@@ -6561,18 +6604,18 @@
       </c>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>264</v>
+      <c r="D173" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E173" s="1">
         <v>18</v>
@@ -6591,18 +6634,18 @@
       </c>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>239</v>
+        <v>23</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="E174" s="1">
         <v>12</v>
@@ -6621,18 +6664,18 @@
       </c>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>241</v>
+        <v>23</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E175" s="1">
         <v>478.59253999994388</v>
@@ -6651,18 +6694,18 @@
       </c>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>322</v>
+      <c r="D176" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="E176" s="1">
         <v>42.73</v>
@@ -6681,18 +6724,18 @@
       </c>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>244</v>
+      <c r="D177" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E177" s="1">
         <v>230</v>
@@ -6711,18 +6754,18 @@
       </c>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>268</v>
+      <c r="D178" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="E178" s="1">
         <v>427</v>
@@ -6741,18 +6784,18 @@
       </c>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>323</v>
+      <c r="D179" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="E179" s="1">
         <v>1539</v>
@@ -6771,18 +6814,18 @@
       </c>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>304</v>
+        <v>23</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E180" s="1">
         <v>36.340000000000003</v>
@@ -6801,18 +6844,18 @@
       </c>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>264</v>
+      <c r="D181" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E181" s="1">
         <v>478.59253999994388</v>
@@ -6831,18 +6874,18 @@
       </c>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>324</v>
+      <c r="D182" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="E182" s="1">
         <v>530</v>
@@ -6861,18 +6904,18 @@
       </c>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>264</v>
+      <c r="D183" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E183" s="1">
         <v>478.59253999994388</v>
@@ -6891,18 +6934,18 @@
       </c>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>325</v>
+      <c r="D184" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E184" s="1">
         <v>88</v>
@@ -6921,18 +6964,18 @@
       </c>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>281</v>
+      <c r="D185" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="E185" s="1">
         <v>478.59253999994388</v>
